--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Penk</t>
   </si>
   <si>
     <t>Ogfr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>20.908407</v>
+        <v>0.4026095</v>
       </c>
       <c r="H2">
-        <v>62.725221</v>
+        <v>0.805219</v>
       </c>
       <c r="I2">
-        <v>0.9843255515709016</v>
+        <v>0.01804598574330544</v>
       </c>
       <c r="J2">
-        <v>0.9867193626172466</v>
+        <v>0.01224043558018516</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.028715</v>
+        <v>11.260509</v>
       </c>
       <c r="N2">
-        <v>24.05743</v>
+        <v>22.521018</v>
       </c>
       <c r="O2">
-        <v>0.1745799853607583</v>
+        <v>0.15891637872137</v>
       </c>
       <c r="P2">
-        <v>0.1289946853391568</v>
+        <v>0.1154264281729603</v>
       </c>
       <c r="Q2">
-        <v>251.501268907005</v>
+        <v>4.5335878982355</v>
       </c>
       <c r="R2">
-        <v>1509.00761344203</v>
+        <v>18.134351592942</v>
       </c>
       <c r="S2">
-        <v>0.1718435403834683</v>
+        <v>0.002867802704783571</v>
       </c>
       <c r="T2">
-        <v>0.1272815536988651</v>
+        <v>0.001412869758301991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>20.908407</v>
+        <v>0.4026095</v>
       </c>
       <c r="H3">
-        <v>62.725221</v>
+        <v>0.805219</v>
       </c>
       <c r="I3">
-        <v>0.9843255515709016</v>
+        <v>0.01804598574330544</v>
       </c>
       <c r="J3">
-        <v>0.9867193626172466</v>
+        <v>0.01224043558018516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>25.377405</v>
       </c>
       <c r="O3">
-        <v>0.1227725209604416</v>
+        <v>0.1193813797684631</v>
       </c>
       <c r="P3">
-        <v>0.1360723224675015</v>
+        <v>0.1300661992920846</v>
       </c>
       <c r="Q3">
-        <v>176.867037447945</v>
+        <v>3.4057281127825</v>
       </c>
       <c r="R3">
-        <v>1591.803337031505</v>
+        <v>20.434368676695</v>
       </c>
       <c r="S3">
-        <v>0.1208481294121367</v>
+        <v>0.002154354677317817</v>
       </c>
       <c r="T3">
-        <v>0.1342651952949815</v>
+        <v>0.001592066933594287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>20.908407</v>
+        <v>0.4026095</v>
       </c>
       <c r="H4">
-        <v>62.725221</v>
+        <v>0.805219</v>
       </c>
       <c r="I4">
-        <v>0.9843255515709016</v>
+        <v>0.01804598574330544</v>
       </c>
       <c r="J4">
-        <v>0.9867193626172466</v>
+        <v>0.01224043558018516</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.13277766666667</v>
+        <v>19.91978066666667</v>
       </c>
       <c r="N4">
-        <v>42.398333</v>
+        <v>59.759342</v>
       </c>
       <c r="O4">
-        <v>0.205117514061437</v>
+        <v>0.2811222306620976</v>
       </c>
       <c r="P4">
-        <v>0.2273376509560576</v>
+        <v>0.3062831083846376</v>
       </c>
       <c r="Q4">
-        <v>295.493867495177</v>
+        <v>8.019892934316333</v>
       </c>
       <c r="R4">
-        <v>2659.444807456593</v>
+        <v>48.119357605898</v>
       </c>
       <c r="S4">
-        <v>0.2019024101653762</v>
+        <v>0.005073127766654435</v>
       </c>
       <c r="T4">
-        <v>0.2243184620502632</v>
+        <v>0.003749038657481026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>20.908407</v>
+        <v>0.4026095</v>
       </c>
       <c r="H5">
-        <v>62.725221</v>
+        <v>0.805219</v>
       </c>
       <c r="I5">
-        <v>0.9843255515709016</v>
+        <v>0.01804598574330544</v>
       </c>
       <c r="J5">
-        <v>0.9867193626172466</v>
+        <v>0.01224043558018516</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.174542500000001</v>
+        <v>6.20227</v>
       </c>
       <c r="N5">
-        <v>16.349085</v>
+        <v>12.40454</v>
       </c>
       <c r="O5">
-        <v>0.1186420586056696</v>
+        <v>0.08753088232975897</v>
       </c>
       <c r="P5">
-        <v>0.08766294135151298</v>
+        <v>0.06357668846624134</v>
       </c>
       <c r="Q5">
-        <v>170.9166616287975</v>
+        <v>2.497092823565</v>
       </c>
       <c r="R5">
-        <v>1025.499969772785</v>
+        <v>9.98837129426</v>
       </c>
       <c r="S5">
-        <v>0.1167824097765329</v>
+        <v>0.001579581054621776</v>
       </c>
       <c r="T5">
-        <v>0.08649872161551796</v>
+        <v>0.0007782063595725281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>20.908407</v>
+        <v>0.4026095</v>
       </c>
       <c r="H6">
-        <v>62.725221</v>
+        <v>0.805219</v>
       </c>
       <c r="I6">
-        <v>0.9843255515709016</v>
+        <v>0.01804598574330544</v>
       </c>
       <c r="J6">
-        <v>0.9867193626172466</v>
+        <v>0.01224043558018516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.045428</v>
+        <v>14.90555066666666</v>
       </c>
       <c r="N6">
-        <v>21.136284</v>
+        <v>44.716652</v>
       </c>
       <c r="O6">
-        <v>0.1022545398324157</v>
+        <v>0.2103578208404762</v>
       </c>
       <c r="P6">
-        <v>0.1133316527916346</v>
+        <v>0.2291851736104142</v>
       </c>
       <c r="Q6">
-        <v>147.308676113196</v>
+        <v>6.001116301131333</v>
       </c>
       <c r="R6">
-        <v>1325.778085018764</v>
+        <v>36.006697806788</v>
       </c>
       <c r="S6">
-        <v>0.1006517563211713</v>
+        <v>0.003796114235880032</v>
       </c>
       <c r="T6">
-        <v>0.1118265362069208</v>
+        <v>0.002805326353511827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>20.908407</v>
+        <v>0.4026095</v>
       </c>
       <c r="H7">
-        <v>62.725221</v>
+        <v>0.805219</v>
       </c>
       <c r="I7">
-        <v>0.9843255515709016</v>
+        <v>0.01804598574330544</v>
       </c>
       <c r="J7">
-        <v>0.9867193626172466</v>
+        <v>0.01224043558018516</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.060284</v>
+        <v>10.11083166666667</v>
       </c>
       <c r="N7">
-        <v>57.18085199999999</v>
+        <v>30.332495</v>
       </c>
       <c r="O7">
-        <v>0.2766333811792777</v>
+        <v>0.1426913076778342</v>
       </c>
       <c r="P7">
-        <v>0.3066007470941366</v>
+        <v>0.155462402073662</v>
       </c>
       <c r="Q7">
-        <v>398.520175407588</v>
+        <v>4.070716881900834</v>
       </c>
       <c r="R7">
-        <v>3586.681578668292</v>
+        <v>24.424301291405</v>
       </c>
       <c r="S7">
-        <v>0.272297305512216</v>
+        <v>0.002575005304047806</v>
       </c>
       <c r="T7">
-        <v>0.3025288937506981</v>
+        <v>0.001902927517723504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.17835</v>
+        <v>20.908407</v>
       </c>
       <c r="H8">
-        <v>0.53505</v>
+        <v>62.725221</v>
       </c>
       <c r="I8">
-        <v>0.00839635760498972</v>
+        <v>0.937168185641987</v>
       </c>
       <c r="J8">
-        <v>0.008416776960711829</v>
+        <v>0.9535095755358199</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.028715</v>
+        <v>11.260509</v>
       </c>
       <c r="N8">
-        <v>24.05743</v>
+        <v>22.521018</v>
       </c>
       <c r="O8">
-        <v>0.1745799853607583</v>
+        <v>0.15891637872137</v>
       </c>
       <c r="P8">
-        <v>0.1289946853391568</v>
+        <v>0.1154264281729603</v>
       </c>
       <c r="Q8">
-        <v>2.14532132025</v>
+        <v>235.439305199163</v>
       </c>
       <c r="R8">
-        <v>12.8719279215</v>
+        <v>1412.635831194978</v>
       </c>
       <c r="S8">
-        <v>0.001465835987762797</v>
+        <v>0.1489313743151012</v>
       </c>
       <c r="T8">
-        <v>0.001085719495616887</v>
+        <v>0.1100602045328152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.17835</v>
+        <v>20.908407</v>
       </c>
       <c r="H9">
-        <v>0.53505</v>
+        <v>62.725221</v>
       </c>
       <c r="I9">
-        <v>0.00839635760498972</v>
+        <v>0.937168185641987</v>
       </c>
       <c r="J9">
-        <v>0.008416776960711829</v>
+        <v>0.9535095755358199</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>25.377405</v>
       </c>
       <c r="O9">
-        <v>0.1227725209604416</v>
+        <v>0.1193813797684631</v>
       </c>
       <c r="P9">
-        <v>0.1360723224675015</v>
+        <v>0.1300661992920846</v>
       </c>
       <c r="Q9">
-        <v>1.50868672725</v>
+        <v>176.867037447945</v>
       </c>
       <c r="R9">
-        <v>13.57818054525</v>
+        <v>1591.803337031505</v>
       </c>
       <c r="S9">
-        <v>0.001030841990049963</v>
+        <v>0.1118804310770476</v>
       </c>
       <c r="T9">
-        <v>0.001145290388735017</v>
+        <v>0.124019366478553</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.17835</v>
+        <v>20.908407</v>
       </c>
       <c r="H10">
-        <v>0.53505</v>
+        <v>62.725221</v>
       </c>
       <c r="I10">
-        <v>0.00839635760498972</v>
+        <v>0.937168185641987</v>
       </c>
       <c r="J10">
-        <v>0.008416776960711829</v>
+        <v>0.9535095755358199</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.13277766666667</v>
+        <v>19.91978066666667</v>
       </c>
       <c r="N10">
-        <v>42.398333</v>
+        <v>59.759342</v>
       </c>
       <c r="O10">
-        <v>0.205117514061437</v>
+        <v>0.2811222306620976</v>
       </c>
       <c r="P10">
-        <v>0.2273376509560576</v>
+        <v>0.3062831083846376</v>
       </c>
       <c r="Q10">
-        <v>2.52058089685</v>
+        <v>416.4908815293981</v>
       </c>
       <c r="R10">
-        <v>22.68522807165</v>
+        <v>3748.417933764582</v>
       </c>
       <c r="S10">
-        <v>0.001722239999106333</v>
+        <v>0.2634588108532261</v>
       </c>
       <c r="T10">
-        <v>0.001913450302869293</v>
+        <v>0.2920438766696273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.17835</v>
+        <v>20.908407</v>
       </c>
       <c r="H11">
-        <v>0.53505</v>
+        <v>62.725221</v>
       </c>
       <c r="I11">
-        <v>0.00839635760498972</v>
+        <v>0.937168185641987</v>
       </c>
       <c r="J11">
-        <v>0.008416776960711829</v>
+        <v>0.9535095755358199</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.174542500000001</v>
+        <v>6.20227</v>
       </c>
       <c r="N11">
-        <v>16.349085</v>
+        <v>12.40454</v>
       </c>
       <c r="O11">
-        <v>0.1186420586056696</v>
+        <v>0.08753088232975897</v>
       </c>
       <c r="P11">
-        <v>0.08766294135151298</v>
+        <v>0.06357668846624134</v>
       </c>
       <c r="Q11">
-        <v>1.457929654875</v>
+        <v>129.67958548389</v>
       </c>
       <c r="R11">
-        <v>8.747577929250001</v>
+        <v>778.07751290334</v>
       </c>
       <c r="S11">
-        <v>0.0009961611510453496</v>
+        <v>0.08203115818062248</v>
       </c>
       <c r="T11">
-        <v>0.0007378394250756467</v>
+        <v>0.06062098123341884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.17835</v>
+        <v>20.908407</v>
       </c>
       <c r="H12">
-        <v>0.53505</v>
+        <v>62.725221</v>
       </c>
       <c r="I12">
-        <v>0.00839635760498972</v>
+        <v>0.937168185641987</v>
       </c>
       <c r="J12">
-        <v>0.008416776960711829</v>
+        <v>0.9535095755358199</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.045428</v>
+        <v>14.90555066666666</v>
       </c>
       <c r="N12">
-        <v>21.136284</v>
+        <v>44.716652</v>
       </c>
       <c r="O12">
-        <v>0.1022545398324157</v>
+        <v>0.2103578208404762</v>
       </c>
       <c r="P12">
-        <v>0.1133316527916346</v>
+        <v>0.2291851736104142</v>
       </c>
       <c r="Q12">
-        <v>1.2565520838</v>
+        <v>311.651319897788</v>
       </c>
       <c r="R12">
-        <v>11.3089687542</v>
+        <v>2804.861879080092</v>
       </c>
       <c r="S12">
-        <v>0.000858565683166628</v>
+        <v>0.1971406572926712</v>
       </c>
       <c r="T12">
-        <v>0.0009538872441360226</v>
+        <v>0.2185302576083692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.17835</v>
+        <v>20.908407</v>
       </c>
       <c r="H13">
-        <v>0.53505</v>
+        <v>62.725221</v>
       </c>
       <c r="I13">
-        <v>0.00839635760498972</v>
+        <v>0.937168185641987</v>
       </c>
       <c r="J13">
-        <v>0.008416776960711829</v>
+        <v>0.9535095755358199</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.060284</v>
+        <v>10.11083166666667</v>
       </c>
       <c r="N13">
-        <v>57.18085199999999</v>
+        <v>30.332495</v>
       </c>
       <c r="O13">
-        <v>0.2766333811792777</v>
+        <v>0.1426913076778342</v>
       </c>
       <c r="P13">
-        <v>0.3066007470941366</v>
+        <v>0.155462402073662</v>
       </c>
       <c r="Q13">
-        <v>3.3994016514</v>
+        <v>211.401383595155</v>
       </c>
       <c r="R13">
-        <v>30.5946148626</v>
+        <v>1902.612452356395</v>
       </c>
       <c r="S13">
-        <v>0.002322712793858648</v>
+        <v>0.1337257539233184</v>
       </c>
       <c r="T13">
-        <v>0.002580590104278963</v>
+        <v>0.1482348890130364</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1545965</v>
+        <v>0.08491666666666665</v>
       </c>
       <c r="H14">
-        <v>0.309193</v>
+        <v>0.25475</v>
       </c>
       <c r="I14">
-        <v>0.007278090824108737</v>
+        <v>0.003806181811496466</v>
       </c>
       <c r="J14">
-        <v>0.004863860422041627</v>
+        <v>0.003872550155985104</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.028715</v>
+        <v>11.260509</v>
       </c>
       <c r="N14">
-        <v>24.05743</v>
+        <v>22.521018</v>
       </c>
       <c r="O14">
-        <v>0.1745799853607583</v>
+        <v>0.15891637872137</v>
       </c>
       <c r="P14">
-        <v>0.1289946853391568</v>
+        <v>0.1154264281729603</v>
       </c>
       <c r="Q14">
-        <v>1.8595972384975</v>
+        <v>0.9562048892499998</v>
       </c>
       <c r="R14">
-        <v>7.43838895399</v>
+        <v>5.737229335499999</v>
       </c>
       <c r="S14">
-        <v>0.001270608989527173</v>
+        <v>0.0006048646302381626</v>
       </c>
       <c r="T14">
-        <v>0.0006274121446748381</v>
+        <v>0.0004469946324260009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1545965</v>
+        <v>0.08491666666666665</v>
       </c>
       <c r="H15">
-        <v>0.309193</v>
+        <v>0.25475</v>
       </c>
       <c r="I15">
-        <v>0.007278090824108737</v>
+        <v>0.003806181811496466</v>
       </c>
       <c r="J15">
-        <v>0.004863860422041627</v>
+        <v>0.003872550155985104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>25.377405</v>
       </c>
       <c r="O15">
-        <v>0.1227725209604416</v>
+        <v>0.1193813797684631</v>
       </c>
       <c r="P15">
-        <v>0.1360723224675015</v>
+        <v>0.1300661992920846</v>
       </c>
       <c r="Q15">
-        <v>1.3077526640275</v>
+        <v>0.7183215470833332</v>
       </c>
       <c r="R15">
-        <v>7.846515984164999</v>
+        <v>6.464893923749999</v>
       </c>
       <c r="S15">
-        <v>0.0008935495582548875</v>
+        <v>0.0004543872363060764</v>
       </c>
       <c r="T15">
-        <v>0.0006618367837849662</v>
+        <v>0.0005036878803569519</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1545965</v>
+        <v>0.08491666666666665</v>
       </c>
       <c r="H16">
-        <v>0.309193</v>
+        <v>0.25475</v>
       </c>
       <c r="I16">
-        <v>0.007278090824108737</v>
+        <v>0.003806181811496466</v>
       </c>
       <c r="J16">
-        <v>0.004863860422041627</v>
+        <v>0.003872550155985104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.13277766666667</v>
+        <v>19.91978066666667</v>
       </c>
       <c r="N16">
-        <v>42.398333</v>
+        <v>59.759342</v>
       </c>
       <c r="O16">
-        <v>0.205117514061437</v>
+        <v>0.2811222306620976</v>
       </c>
       <c r="P16">
-        <v>0.2273376509560576</v>
+        <v>0.3062831083846376</v>
       </c>
       <c r="Q16">
-        <v>2.184877962544833</v>
+        <v>1.691521374944444</v>
       </c>
       <c r="R16">
-        <v>13.109267775269</v>
+        <v>15.2236923745</v>
       </c>
       <c r="S16">
-        <v>0.00149286389695454</v>
+        <v>0.00107000232115339</v>
       </c>
       <c r="T16">
-        <v>0.001105738602925082</v>
+        <v>0.001186096699150531</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1545965</v>
+        <v>0.08491666666666665</v>
       </c>
       <c r="H17">
-        <v>0.309193</v>
+        <v>0.25475</v>
       </c>
       <c r="I17">
-        <v>0.007278090824108737</v>
+        <v>0.003806181811496466</v>
       </c>
       <c r="J17">
-        <v>0.004863860422041627</v>
+        <v>0.003872550155985104</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.174542500000001</v>
+        <v>6.20227</v>
       </c>
       <c r="N17">
-        <v>16.349085</v>
+        <v>12.40454</v>
       </c>
       <c r="O17">
-        <v>0.1186420586056696</v>
+        <v>0.08753088232975897</v>
       </c>
       <c r="P17">
-        <v>0.08766294135151298</v>
+        <v>0.06357668846624134</v>
       </c>
       <c r="Q17">
-        <v>1.26375565960125</v>
+        <v>0.5266760941666666</v>
       </c>
       <c r="R17">
-        <v>5.055022638405001</v>
+        <v>3.160056565</v>
       </c>
       <c r="S17">
-        <v>0.0008634876780912947</v>
+        <v>0.000333158452267766</v>
       </c>
       <c r="T17">
-        <v>0.0004263803109193803</v>
+        <v>0.0002462039148369593</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1545965</v>
+        <v>0.08491666666666665</v>
       </c>
       <c r="H18">
-        <v>0.309193</v>
+        <v>0.25475</v>
       </c>
       <c r="I18">
-        <v>0.007278090824108737</v>
+        <v>0.003806181811496466</v>
       </c>
       <c r="J18">
-        <v>0.004863860422041627</v>
+        <v>0.003872550155985104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.045428</v>
+        <v>14.90555066666666</v>
       </c>
       <c r="N18">
-        <v>21.136284</v>
+        <v>44.716652</v>
       </c>
       <c r="O18">
-        <v>0.1022545398324157</v>
+        <v>0.2103578208404762</v>
       </c>
       <c r="P18">
-        <v>0.1133316527916346</v>
+        <v>0.2291851736104142</v>
       </c>
       <c r="Q18">
-        <v>1.089198509802</v>
+        <v>1.265729677444444</v>
       </c>
       <c r="R18">
-        <v>6.535191058812</v>
+        <v>11.391567097</v>
       </c>
       <c r="S18">
-        <v>0.0007442178280777662</v>
+        <v>0.0008006601115890526</v>
       </c>
       <c r="T18">
-        <v>0.0005512293405777951</v>
+        <v>0.0008875310798144827</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08491666666666665</v>
+      </c>
+      <c r="H19">
+        <v>0.25475</v>
+      </c>
+      <c r="I19">
+        <v>0.003806181811496466</v>
+      </c>
+      <c r="J19">
+        <v>0.003872550155985104</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.11083166666667</v>
+      </c>
+      <c r="N19">
+        <v>30.332495</v>
+      </c>
+      <c r="O19">
+        <v>0.1426913076778342</v>
+      </c>
+      <c r="P19">
+        <v>0.155462402073662</v>
+      </c>
+      <c r="Q19">
+        <v>0.8585781223611111</v>
+      </c>
+      <c r="R19">
+        <v>7.72720310125</v>
+      </c>
+      <c r="S19">
+        <v>0.0005431090599420186</v>
+      </c>
+      <c r="T19">
+        <v>0.0006020359494001787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.744457</v>
+      </c>
+      <c r="H20">
+        <v>1.488914</v>
+      </c>
+      <c r="I20">
+        <v>0.03336846350745309</v>
+      </c>
+      <c r="J20">
+        <v>0.02263353932462573</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.260509</v>
+      </c>
+      <c r="N20">
+        <v>22.521018</v>
+      </c>
+      <c r="O20">
+        <v>0.15891637872137</v>
+      </c>
+      <c r="P20">
+        <v>0.1154264281729603</v>
+      </c>
+      <c r="Q20">
+        <v>8.382964748613</v>
+      </c>
+      <c r="R20">
+        <v>33.531858994452</v>
+      </c>
+      <c r="S20">
+        <v>0.005302795384100631</v>
+      </c>
+      <c r="T20">
+        <v>0.002612508601153786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.744457</v>
+      </c>
+      <c r="H21">
+        <v>1.488914</v>
+      </c>
+      <c r="I21">
+        <v>0.03336846350745309</v>
+      </c>
+      <c r="J21">
+        <v>0.02263353932462573</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.459135</v>
+      </c>
+      <c r="N21">
+        <v>25.377405</v>
+      </c>
+      <c r="O21">
+        <v>0.1193813797684631</v>
+      </c>
+      <c r="P21">
+        <v>0.1300661992920846</v>
+      </c>
+      <c r="Q21">
+        <v>6.297462264695</v>
+      </c>
+      <c r="R21">
+        <v>37.78477358817</v>
+      </c>
+      <c r="S21">
+        <v>0.003983573214273359</v>
+      </c>
+      <c r="T21">
+        <v>0.002943858436482005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.744457</v>
+      </c>
+      <c r="H22">
+        <v>1.488914</v>
+      </c>
+      <c r="I22">
+        <v>0.03336846350745309</v>
+      </c>
+      <c r="J22">
+        <v>0.02263353932462573</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>19.91978066666667</v>
+      </c>
+      <c r="N22">
+        <v>59.759342</v>
+      </c>
+      <c r="O22">
+        <v>0.2811222306620976</v>
+      </c>
+      <c r="P22">
+        <v>0.3062831083846376</v>
+      </c>
+      <c r="Q22">
+        <v>14.82942015576467</v>
+      </c>
+      <c r="R22">
+        <v>88.97652093458801</v>
+      </c>
+      <c r="S22">
+        <v>0.009380616894982012</v>
+      </c>
+      <c r="T22">
+        <v>0.006932270778092301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.744457</v>
+      </c>
+      <c r="H23">
+        <v>1.488914</v>
+      </c>
+      <c r="I23">
+        <v>0.03336846350745309</v>
+      </c>
+      <c r="J23">
+        <v>0.02263353932462573</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.20227</v>
+      </c>
+      <c r="N23">
+        <v>12.40454</v>
+      </c>
+      <c r="O23">
+        <v>0.08753088232975897</v>
+      </c>
+      <c r="P23">
+        <v>0.06357668846624134</v>
+      </c>
+      <c r="Q23">
+        <v>4.61732331739</v>
+      </c>
+      <c r="R23">
+        <v>18.46929326956</v>
+      </c>
+      <c r="S23">
+        <v>0.002920771052795733</v>
+      </c>
+      <c r="T23">
+        <v>0.001438965478530153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.744457</v>
+      </c>
+      <c r="H24">
+        <v>1.488914</v>
+      </c>
+      <c r="I24">
+        <v>0.03336846350745309</v>
+      </c>
+      <c r="J24">
+        <v>0.02263353932462573</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.90555066666666</v>
+      </c>
+      <c r="N24">
+        <v>44.716652</v>
+      </c>
+      <c r="O24">
+        <v>0.2103578208404762</v>
+      </c>
+      <c r="P24">
+        <v>0.2291851736104142</v>
+      </c>
+      <c r="Q24">
+        <v>11.09654153265467</v>
+      </c>
+      <c r="R24">
+        <v>66.579249195928</v>
+      </c>
+      <c r="S24">
+        <v>0.007019317268222784</v>
+      </c>
+      <c r="T24">
+        <v>0.005187271639532486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.744457</v>
+      </c>
+      <c r="H25">
+        <v>1.488914</v>
+      </c>
+      <c r="I25">
+        <v>0.03336846350745309</v>
+      </c>
+      <c r="J25">
+        <v>0.02263353932462573</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.11083166666667</v>
+      </c>
+      <c r="N25">
+        <v>30.332495</v>
+      </c>
+      <c r="O25">
+        <v>0.1426913076778342</v>
+      </c>
+      <c r="P25">
+        <v>0.155462402073662</v>
+      </c>
+      <c r="Q25">
+        <v>7.527079410071668</v>
+      </c>
+      <c r="R25">
+        <v>45.16247646043001</v>
+      </c>
+      <c r="S25">
+        <v>0.004761389693078572</v>
+      </c>
+      <c r="T25">
+        <v>0.003518664390835006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.169807</v>
+      </c>
+      <c r="H26">
+        <v>0.509421</v>
+      </c>
+      <c r="I26">
+        <v>0.007611183295757965</v>
+      </c>
+      <c r="J26">
+        <v>0.007743899403384055</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.260509</v>
+      </c>
+      <c r="N26">
+        <v>22.521018</v>
+      </c>
+      <c r="O26">
+        <v>0.15891637872137</v>
+      </c>
+      <c r="P26">
+        <v>0.1154264281729603</v>
+      </c>
+      <c r="Q26">
+        <v>1.912113251763</v>
+      </c>
+      <c r="R26">
+        <v>11.472679510578</v>
+      </c>
+      <c r="S26">
+        <v>0.001209541687146438</v>
+      </c>
+      <c r="T26">
+        <v>0.00089385064826334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.169807</v>
+      </c>
+      <c r="H27">
+        <v>0.509421</v>
+      </c>
+      <c r="I27">
+        <v>0.007611183295757965</v>
+      </c>
+      <c r="J27">
+        <v>0.007743899403384055</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.459135</v>
+      </c>
+      <c r="N27">
+        <v>25.377405</v>
+      </c>
+      <c r="O27">
+        <v>0.1193813797684631</v>
+      </c>
+      <c r="P27">
+        <v>0.1300661992920846</v>
+      </c>
+      <c r="Q27">
+        <v>1.436420336945</v>
+      </c>
+      <c r="R27">
+        <v>12.927783032505</v>
+      </c>
+      <c r="S27">
+        <v>0.0009086335635182641</v>
+      </c>
+      <c r="T27">
+        <v>0.001007219563098406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.169807</v>
+      </c>
+      <c r="H28">
+        <v>0.509421</v>
+      </c>
+      <c r="I28">
+        <v>0.007611183295757965</v>
+      </c>
+      <c r="J28">
+        <v>0.007743899403384055</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>19.91978066666667</v>
+      </c>
+      <c r="N28">
+        <v>59.759342</v>
+      </c>
+      <c r="O28">
+        <v>0.2811222306620976</v>
+      </c>
+      <c r="P28">
+        <v>0.3062831083846376</v>
+      </c>
+      <c r="Q28">
+        <v>3.382518195664667</v>
+      </c>
+      <c r="R28">
+        <v>30.442663760982</v>
+      </c>
+      <c r="S28">
+        <v>0.002139672826081575</v>
+      </c>
+      <c r="T28">
+        <v>0.002371825580286408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.169807</v>
+      </c>
+      <c r="H29">
+        <v>0.509421</v>
+      </c>
+      <c r="I29">
+        <v>0.007611183295757965</v>
+      </c>
+      <c r="J29">
+        <v>0.007743899403384055</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.20227</v>
+      </c>
+      <c r="N29">
+        <v>12.40454</v>
+      </c>
+      <c r="O29">
+        <v>0.08753088232975897</v>
+      </c>
+      <c r="P29">
+        <v>0.06357668846624134</v>
+      </c>
+      <c r="Q29">
+        <v>1.05318886189</v>
+      </c>
+      <c r="R29">
+        <v>6.319133171340001</v>
+      </c>
+      <c r="S29">
+        <v>0.0006662135894512175</v>
+      </c>
+      <c r="T29">
+        <v>0.0004923314798828603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.1545965</v>
-      </c>
-      <c r="H19">
-        <v>0.309193</v>
-      </c>
-      <c r="I19">
-        <v>0.007278090824108737</v>
-      </c>
-      <c r="J19">
-        <v>0.004863860422041627</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.060284</v>
-      </c>
-      <c r="N19">
-        <v>57.18085199999999</v>
-      </c>
-      <c r="O19">
-        <v>0.2766333811792777</v>
-      </c>
-      <c r="P19">
-        <v>0.3066007470941366</v>
-      </c>
-      <c r="Q19">
-        <v>2.946653195406</v>
-      </c>
-      <c r="R19">
-        <v>17.679919172436</v>
-      </c>
-      <c r="S19">
-        <v>0.002013362873203076</v>
-      </c>
-      <c r="T19">
-        <v>0.001491263239159565</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.169807</v>
+      </c>
+      <c r="H30">
+        <v>0.509421</v>
+      </c>
+      <c r="I30">
+        <v>0.007611183295757965</v>
+      </c>
+      <c r="J30">
+        <v>0.007743899403384055</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.90555066666666</v>
+      </c>
+      <c r="N30">
+        <v>44.716652</v>
+      </c>
+      <c r="O30">
+        <v>0.2103578208404762</v>
+      </c>
+      <c r="P30">
+        <v>0.2291851736104142</v>
+      </c>
+      <c r="Q30">
+        <v>2.531066842054666</v>
+      </c>
+      <c r="R30">
+        <v>22.779601578492</v>
+      </c>
+      <c r="S30">
+        <v>0.001601071932113079</v>
+      </c>
+      <c r="T30">
+        <v>0.001774786929186158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.169807</v>
+      </c>
+      <c r="H31">
+        <v>0.509421</v>
+      </c>
+      <c r="I31">
+        <v>0.007611183295757965</v>
+      </c>
+      <c r="J31">
+        <v>0.007743899403384055</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.11083166666667</v>
+      </c>
+      <c r="N31">
+        <v>30.332495</v>
+      </c>
+      <c r="O31">
+        <v>0.1426913076778342</v>
+      </c>
+      <c r="P31">
+        <v>0.155462402073662</v>
+      </c>
+      <c r="Q31">
+        <v>1.716889992821667</v>
+      </c>
+      <c r="R31">
+        <v>15.452009935395</v>
+      </c>
+      <c r="S31">
+        <v>0.001086049697447392</v>
+      </c>
+      <c r="T31">
+        <v>0.001203885202666883</v>
       </c>
     </row>
   </sheetData>
